--- a/Progress-User-stories.xlsx
+++ b/Progress-User-stories.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orfa\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Spring Backlog</t>
   </si>
@@ -50,9 +45,6 @@
     <t>1)να εχει η βαση πινακα με τα login 2)να στελνει ο client στο celver και αυτος στην βαση να δειχνει αν ο κωδικος είναι σωστος 3)πεδια για login,εμφανιση νεας σελιδας αν είναι σωστος αλλιως μηνυμα λαθους</t>
   </si>
   <si>
-    <t>1)βαση πινακα με τις πληροφοριες 2)πανω στην εφαρμογη κειμενο με τα στοιχεια</t>
-  </si>
-  <si>
     <t xml:space="preserve">τα καταστηματα να εμφανιζονται με ιδικο συμβολο </t>
   </si>
   <si>
@@ -75,9 +67,6 @@
   </si>
   <si>
     <t>Να μπορει να κανει αναζητηση</t>
-  </si>
-  <si>
-    <t>Να βλεπει τις πληροφοριες κάθε μαγαζιου</t>
   </si>
   <si>
     <t>Να μπορει να συνδεεται με αλλα μεσα δικτυωσης π.χ. Facebook</t>
@@ -110,7 +99,25 @@
     <t>*Να μπορει να κανει κοινοποιηση των προσφορων</t>
   </si>
   <si>
-    <t>*Να μπορει να κανει refresh manually</t>
+    <t>Να μπορεί να κάνει εγγραφή</t>
+  </si>
+  <si>
+    <t>Να αξιοποιεί την εφαρμογή από οποιαδήποτε συσκευή</t>
+  </si>
+  <si>
+    <t>Ανέβασμα σε server</t>
+  </si>
+  <si>
+    <t>Να μπορεί να κάνει αξιολόγηση στα καταστήματα</t>
+  </si>
+  <si>
+    <t>Να μπορεί να βλέπει όλες τις πληροφορίες του κάθε καταστήματος (σε ξεχωριστή καρτέλα)</t>
+  </si>
+  <si>
+    <t>Να βλεπει τις πληροφοριες κάθε μαγαζιου(pop up)</t>
+  </si>
+  <si>
+    <t>1)βαση πινακα με τις πληροφοριες 2)πανω στον χαρτη κειμενο με τα στοιχεια</t>
   </si>
 </sst>
 </file>
@@ -228,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -351,7 +358,7 @@
               </a:gradFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="18415" cmpd="sng">
@@ -875,7 +882,7 @@
               </a:gradFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="18415" cmpd="sng">
@@ -1923,7 +1930,7 @@
               </a:gradFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="18415" cmpd="sng">
@@ -2453,7 +2460,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2510,6 +2520,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
           <a:endParaRPr lang="el-GR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2624,6 +2646,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
           <a:endParaRPr lang="el-GR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2852,6 +2886,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
           <a:endParaRPr lang="el-GR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3080,6 +3126,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
           <a:endParaRPr lang="el-GR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3137,6 +3195,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
           <a:endParaRPr lang="el-GR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3475,206 +3545,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>647700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="45 - Γωνιακή σύνδεση"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5619750" y="7772401"/>
-          <a:ext cx="971550" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1104900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="47 - Γωνιακή σύνδεση"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5581650" y="1200150"/>
-          <a:ext cx="1047750" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1562100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="53 - Γωνιακή σύνδεση"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5572125" y="4391025"/>
-          <a:ext cx="1057275" cy="981075"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>571500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="55 - Γωνιακή σύνδεση"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5686425" y="11458575"/>
-          <a:ext cx="885825" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -3721,7 +3591,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" b="1"/>
-            <a:t>81</a:t>
+            <a:t>95</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3731,15 +3601,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
+      <xdr:colOff>50346</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>110218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
+      <xdr:colOff>557894</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>514350</xdr:rowOff>
+      <xdr:rowOff>544286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3748,8 +3618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12639674" y="323850"/>
-          <a:ext cx="390525" cy="390525"/>
+          <a:off x="12065453" y="314325"/>
+          <a:ext cx="507548" cy="434068"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3776,7 +3646,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" b="1"/>
-            <a:t>5</a:t>
+            <a:t>39</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3831,7 +3701,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" b="1"/>
-            <a:t>20</a:t>
+            <a:t>24</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3843,15 +3713,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>771525</xdr:colOff>
+          <xdr:colOff>785532</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>628650</xdr:rowOff>
+          <xdr:rowOff>889747</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>876300</xdr:colOff>
+          <xdr:colOff>941854</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>1266825</xdr:rowOff>
+          <xdr:rowOff>1943100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3864,7 +3734,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3872,17 +3742,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3890,11 +3749,786 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="33 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162925" y="13325475"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="15 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1524000" y="13792200"/>
+          <a:ext cx="781050" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="15 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1514475" y="14516100"/>
+          <a:ext cx="781050" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>903075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="14 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1514475" y="15449550"/>
+          <a:ext cx="693525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="33 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162925" y="14649450"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>742950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="33 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162925" y="15497175"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="34 - Δεξιό βέλος"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="352425"/>
+          <a:ext cx="762000" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="34 - Δεξιό βέλος"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="2647950"/>
+          <a:ext cx="762000" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="36 - Δεξιό βέλος"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="10439400"/>
+          <a:ext cx="790575" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1221441</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10062882" y="2073088"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3936,7 +4570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3971,7 +4605,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4180,10 +4814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4227,25 +4861,25 @@
     </row>
     <row r="2" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4"/>
       <c r="I2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="126" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -4254,20 +4888,20 @@
     </row>
     <row r="4" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4"/>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="4" t="s">
@@ -4276,75 +4910,93 @@
     </row>
     <row r="7" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B2">
@@ -4368,15 +5020,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>771525</xdr:colOff>
+                <xdr:colOff>800100</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>628650</xdr:rowOff>
+                <xdr:rowOff>885825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>1266825</xdr:rowOff>
+                <xdr:rowOff>1943100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/Progress-User-stories.xlsx
+++ b/Progress-User-stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orfa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orfa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Spring Backlog</t>
   </si>
@@ -50,15 +50,6 @@
     <t>1)να εχει η βαση πινακα με τα login 2)να στελνει ο client στο celver και αυτος στην βαση να δειχνει αν ο κωδικος είναι σωστος 3)πεδια για login,εμφανιση νεας σελιδας αν είναι σωστος αλλιως μηνυμα λαθους</t>
   </si>
   <si>
-    <t>1)βαση πινακα με τις πληροφοριες 2)πανω στην εφαρμογη κειμενο με τα στοιχεια</t>
-  </si>
-  <si>
-    <t xml:space="preserve">τα καταστηματα να εμφανιζονται με ιδικο συμβολο </t>
-  </si>
-  <si>
-    <t>Θελω να βρισκει την τοποθεσια μου στο χαρτη</t>
-  </si>
-  <si>
     <t>Να βλεπει την τοποθεσια των προσφορων στο χαρτη</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
   </si>
   <si>
     <t>Να μπορει να κανει αναζητηση</t>
-  </si>
-  <si>
-    <t>Να βλεπει τις πληροφοριες κάθε μαγαζιου</t>
   </si>
   <si>
     <t>Να μπορει να συνδεεται με αλλα μεσα δικτυωσης π.χ. Facebook</t>
@@ -101,16 +89,88 @@
     <t>Συνολικοι βαθμοι των 2 εβδομαδων</t>
   </si>
   <si>
-    <t>Δημιουργία εφαρμογής για mobiles</t>
+    <t>Να μπορεί να κάνει εγγραφή</t>
   </si>
   <si>
-    <t>*Να περνει οδηγιες πώς να φτασει στον προορισμο του</t>
+    <t>Να αξιοποιεί την εφαρμογή από οποιαδήποτε συσκευή</t>
   </si>
   <si>
-    <t>*Να μπορει να κανει κοινοποιηση των προσφορων</t>
+    <t>Ανέβασμα σε server</t>
   </si>
   <si>
-    <t>*Να μπορει να κανει refresh manually</t>
+    <t>Να μπορεί να βλέπει όλες τις πληροφορίες του κάθε καταστήματος (σε ξεχωριστή καρτέλα)</t>
+  </si>
+  <si>
+    <t>Test-names</t>
+  </si>
+  <si>
+    <t>Gkeliris</t>
+  </si>
+  <si>
+    <t>Θελω να βρισκει την τοποθεσια μου στο χαρτη (από txt)</t>
+  </si>
+  <si>
+    <t>getOffersDAOTest</t>
+  </si>
+  <si>
+    <t>authTest</t>
+  </si>
+  <si>
+    <t>Orfanidis</t>
+  </si>
+  <si>
+    <t>registerTest</t>
+  </si>
+  <si>
+    <t>Να βλεπει τις 3 κορυφαίες προσφορές</t>
+  </si>
+  <si>
+    <t>getTopThreeOffersTest</t>
+  </si>
+  <si>
+    <t>να μπορεί ο διαχειριστής να διαβάζει τα μνματα των χρηστών</t>
+  </si>
+  <si>
+    <t>Ως κατάστημα να μπορεί να διαχειρίζεται υποκαταστήματα και προσφορές στον χαρτη</t>
+  </si>
+  <si>
+    <t>uploadCommentTest - showCommentsTest</t>
+  </si>
+  <si>
+    <t>getAllOpinionsTest</t>
+  </si>
+  <si>
+    <t>deleteOfferTest - addOfferTest-updateOfferDetailsTest-showOwnerTest</t>
+  </si>
+  <si>
+    <t>uploadOpinionTest - getAllOpinionsTest</t>
+  </si>
+  <si>
+    <t>getGoogleDataFor  retrieveCoordinatesTest</t>
+  </si>
+  <si>
+    <t>getMyLocationTest seperateCoordinatesTest</t>
+  </si>
+  <si>
+    <t>showOwnerTest</t>
+  </si>
+  <si>
+    <t>Να μπορει να παραγγέλνει μέσω της σελίδας</t>
+  </si>
+  <si>
+    <t>Να μπορεί να προσθέτει καταστήματα στα αγαπημένα</t>
+  </si>
+  <si>
+    <t>Pourganh - Karantelos</t>
+  </si>
+  <si>
+    <t>Gkeliris - Karantelos</t>
+  </si>
+  <si>
+    <t>GeorgeTheLast</t>
+  </si>
+  <si>
+    <t>Georgiadi - Orfanidis</t>
   </si>
 </sst>
 </file>
@@ -351,7 +411,7 @@
               </a:gradFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="18415" cmpd="sng">
@@ -875,7 +935,7 @@
               </a:gradFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="18415" cmpd="sng">
@@ -1006,7 +1066,7 @@
               </a:gradFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="18415" cmpd="sng">
@@ -1137,7 +1197,7 @@
               </a:gradFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="18415" cmpd="sng">
@@ -1427,399 +1487,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>609600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="10 - Έλλειψη"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1571625" y="8610600"/>
-          <a:ext cx="704850" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d extrusionH="76200">
-          <a:extrusionClr>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:extrusionClr>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
-              <a:ln w="10541" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="88000"/>
-                    <a:satMod val="110000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="9000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="20000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="79000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="18415" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>960225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>500775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="11 - Έλλειψη"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1581150" y="9372600"/>
-          <a:ext cx="684000" cy="396000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d extrusionH="76200">
-          <a:extrusionClr>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:extrusionClr>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
-              <a:ln w="10541" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="88000"/>
-                    <a:satMod val="110000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="9000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="20000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="79000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="18415" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>960225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>491250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="12 - Έλλειψη"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1581150" y="6877050"/>
-          <a:ext cx="684000" cy="396000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d extrusionH="76200">
-          <a:extrusionClr>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:extrusionClr>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
-              <a:ln w="10541" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="88000"/>
-                    <a:satMod val="110000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="9000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="20000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="79000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="18415" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
@@ -1923,7 +1590,7 @@
               </a:gradFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="18415" cmpd="sng">
@@ -2185,7 +1852,7 @@
               </a:gradFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="18415" cmpd="sng">
@@ -2212,144 +1879,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>969750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>472200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="16 - Έλλειψη"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1590675" y="10096500"/>
-          <a:ext cx="684000" cy="396000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d extrusionH="76200">
-          <a:extrusionClr>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:extrusionClr>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
-              <a:ln w="10541" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="88000"/>
-                    <a:satMod val="110000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="9000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="20000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="79000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="18415" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
@@ -2404,13 +1940,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>561975</xdr:rowOff>
@@ -2453,7 +1989,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2461,13 +2000,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
@@ -2510,6 +2049,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
           <a:endParaRPr lang="el-GR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2518,70 +2069,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="21 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153400" y="333375"/>
-          <a:ext cx="457200" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>390525</xdr:rowOff>
@@ -2624,6 +2118,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
           <a:endParaRPr lang="el-GR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2632,70 +2138,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="23 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153400" y="3457575"/>
-          <a:ext cx="457200" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
@@ -2746,73 +2195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>771526</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="25 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8191500" y="4591050"/>
-          <a:ext cx="447676" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>717176</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
+      <xdr:rowOff>426944</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2821,7 +2213,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8172450" y="5000625"/>
+          <a:off x="9953064" y="7665384"/>
           <a:ext cx="457200" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2852,6 +2244,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
           <a:endParaRPr lang="el-GR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2860,13 +2264,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
@@ -2917,127 +2321,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="28 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8181975" y="6343650"/>
-          <a:ext cx="457200" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="29 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8181975" y="6896100"/>
-          <a:ext cx="457200" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
@@ -3082,19 +2372,23 @@
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="el-GR" sz="1100"/>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
@@ -3137,120 +2431,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>685800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="32 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8162925" y="9248775"/>
-          <a:ext cx="457200" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="33 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8162925" y="10182225"/>
-          <a:ext cx="457200" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
           <a:endParaRPr lang="el-GR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3368,60 +2560,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="36 - Δεξιό βέλος"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2905125" y="5019675"/>
-          <a:ext cx="790575" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
@@ -3475,213 +2613,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>647700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="45 - Γωνιακή σύνδεση"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5619750" y="7772401"/>
-          <a:ext cx="971550" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1104900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="47 - Γωνιακή σύνδεση"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5581650" y="1200150"/>
-          <a:ext cx="1047750" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1562100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="53 - Γωνιακή σύνδεση"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5572125" y="4391025"/>
-          <a:ext cx="1057275" cy="981075"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>571500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="55 - Γωνιακή σύνδεση"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5686425" y="11458575"/>
-          <a:ext cx="885825" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
@@ -3721,7 +2659,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" b="1"/>
-            <a:t>81</a:t>
+            <a:t>95</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3730,16 +2668,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50346</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>110218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>557894</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>514350</xdr:rowOff>
+      <xdr:rowOff>544286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3748,8 +2686,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12639674" y="323850"/>
-          <a:ext cx="390525" cy="390525"/>
+          <a:off x="12065453" y="314325"/>
+          <a:ext cx="507548" cy="434068"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3776,7 +2714,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" b="1"/>
-            <a:t>5</a:t>
+            <a:t>76</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3785,13 +2723,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>542925</xdr:rowOff>
@@ -3831,7 +2769,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" b="1"/>
-            <a:t>20</a:t>
+            <a:t>37</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3842,16 +2780,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>771525</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>138953</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>628650</xdr:rowOff>
+          <xdr:rowOff>565897</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>876300</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>1266825</xdr:rowOff>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>433107</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>260537</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3890,6 +2828,2564 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="33 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162925" y="13325475"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="15 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1524000" y="13792200"/>
+          <a:ext cx="781050" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="15 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1514475" y="14516100"/>
+          <a:ext cx="781050" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>903075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="14 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1514475" y="15449550"/>
+          <a:ext cx="693525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="33 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162925" y="14649450"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="34 - Δεξιό βέλος"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="352425"/>
+          <a:ext cx="762000" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="34 - Δεξιό βέλος"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="2647950"/>
+          <a:ext cx="762000" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1221441</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10062882" y="2073088"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>700367</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>485214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6958853" y="324971"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733985</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>574861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6992471" y="1064559"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733984</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>462802</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6992470" y="2554941"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>722778</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>552449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981264" y="3272118"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>246529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733984</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>608478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6992470" y="4056529"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242048</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>718297</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>412935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6976783" y="5990104"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>801220</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>417979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8180295" y="5995148"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>722778</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>406773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981264" y="7115736"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>246528</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>722777</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>440391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8101852" y="7149354"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>745191</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>530037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7003677" y="7720853"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733984</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>552449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6992470" y="11060206"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>347382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>745191</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>709331</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7003677" y="11979088"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>358588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733984</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>720537</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8113059" y="11990294"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733984</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>485214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6992470" y="13088471"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>745190</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>474008</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124265" y="13077265"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>790014</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>563655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8169089" y="3283324"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>336177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>823631</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>698126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7082117" y="15206383"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>313765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>801219</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>675714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8180294" y="15183971"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>928850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>511549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="14 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1535207" y="13010030"/>
+          <a:ext cx="693525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>951261</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>634814</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="14 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1557618" y="8482854"/>
+          <a:ext cx="693525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>917642</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>556372</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="14 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1523999" y="9166412"/>
+          <a:ext cx="693525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>928848</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>545166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="14 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1535205" y="9771529"/>
+          <a:ext cx="693525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>737347</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>493619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="26 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7014882" y="9065559"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>759759</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>460001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="26 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9995647" y="9031941"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>286870</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>744070</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>444313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="26 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7021605" y="9632576"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>759759</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>448796</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="26 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9995647" y="9637059"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4180,29 +5676,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4221,130 +5719,216 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="I2" s="7" t="s">
-        <v>23</v>
+      <c r="G2" t="s">
+        <v>42</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
-        <v>24</v>
+      <c r="I2" t="s">
+        <v>47</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7" t="s">
-        <v>25</v>
+      <c r="J2" s="7" t="s">
+        <v>19</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="126" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="126" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4"/>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4"/>
       <c r="D5" s="6"/>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5"/>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5"/>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
+      <c r="D10" s="4"/>
+      <c r="G10" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5"/>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5"/>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5"/>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B2">
@@ -4367,16 +5951,16 @@
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>771525</xdr:colOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>628650</xdr:rowOff>
+                <xdr:rowOff>561975</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>1266825</xdr:rowOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4406,7 +5990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Progress-User-stories.xlsx
+++ b/Progress-User-stories.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orfa\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Spring Backlog</t>
   </si>
@@ -43,12 +48,6 @@
   </si>
   <si>
     <t>1)να εχει η βαση πινακα με τα login 2)να στελνει ο client στο celver και αυτος στην βαση να δειχνει αν ο κωδικος είναι σωστος 3)πεδια για login,εμφανιση νεας σελιδας αν είναι σωστος αλλιως μηνυμα λαθους</t>
-  </si>
-  <si>
-    <t xml:space="preserve">τα καταστηματα να εμφανιζονται με ιδικο συμβολο </t>
-  </si>
-  <si>
-    <t>Θελω να βρισκει την τοποθεσια μου στο χαρτη</t>
   </si>
   <si>
     <t>Να βλεπει την τοποθεσια των προσφορων στο χαρτη</t>
@@ -90,15 +89,6 @@
     <t>Συνολικοι βαθμοι των 2 εβδομαδων</t>
   </si>
   <si>
-    <t>Δημιουργία εφαρμογής για mobiles</t>
-  </si>
-  <si>
-    <t>*Να περνει οδηγιες πώς να φτασει στον προορισμο του</t>
-  </si>
-  <si>
-    <t>*Να μπορει να κανει κοινοποιηση των προσφορων</t>
-  </si>
-  <si>
     <t>Να μπορεί να κάνει εγγραφή</t>
   </si>
   <si>
@@ -108,16 +98,79 @@
     <t>Ανέβασμα σε server</t>
   </si>
   <si>
-    <t>Να μπορεί να κάνει αξιολόγηση στα καταστήματα</t>
-  </si>
-  <si>
     <t>Να μπορεί να βλέπει όλες τις πληροφορίες του κάθε καταστήματος (σε ξεχωριστή καρτέλα)</t>
   </si>
   <si>
-    <t>Να βλεπει τις πληροφοριες κάθε μαγαζιου(pop up)</t>
+    <t>Test-names</t>
   </si>
   <si>
-    <t>1)βαση πινακα με τις πληροφοριες 2)πανω στον χαρτη κειμενο με τα στοιχεια</t>
+    <t>Gkeliris</t>
+  </si>
+  <si>
+    <t>Θελω να βρισκει την τοποθεσια μου στο χαρτη (από txt)</t>
+  </si>
+  <si>
+    <t>getOffersDAOTest</t>
+  </si>
+  <si>
+    <t>authTest</t>
+  </si>
+  <si>
+    <t>Orfanidis</t>
+  </si>
+  <si>
+    <t>registerTest</t>
+  </si>
+  <si>
+    <t>Να βλεπει τις 3 κορυφαίες προσφορές</t>
+  </si>
+  <si>
+    <t>getTopThreeOffersTest</t>
+  </si>
+  <si>
+    <t>να μπορεί ο διαχειριστής να διαβάζει τα μνματα των χρηστών</t>
+  </si>
+  <si>
+    <t>Ως κατάστημα να μπορεί να διαχειρίζεται υποκαταστήματα και προσφορές στον χαρτη</t>
+  </si>
+  <si>
+    <t>uploadCommentTest - showCommentsTest</t>
+  </si>
+  <si>
+    <t>getAllOpinionsTest</t>
+  </si>
+  <si>
+    <t>deleteOfferTest - addOfferTest-updateOfferDetailsTest-showOwnerTest</t>
+  </si>
+  <si>
+    <t>uploadOpinionTest - getAllOpinionsTest</t>
+  </si>
+  <si>
+    <t>getGoogleDataFor  retrieveCoordinatesTest</t>
+  </si>
+  <si>
+    <t>getMyLocationTest seperateCoordinatesTest</t>
+  </si>
+  <si>
+    <t>showOwnerTest</t>
+  </si>
+  <si>
+    <t>Να μπορει να παραγγέλνει μέσω της σελίδας</t>
+  </si>
+  <si>
+    <t>Να μπορεί να προσθέτει καταστήματα στα αγαπημένα</t>
+  </si>
+  <si>
+    <t>Pourganh - Karantelos</t>
+  </si>
+  <si>
+    <t>Gkeliris - Karantelos</t>
+  </si>
+  <si>
+    <t>GeorgeTheLast</t>
+  </si>
+  <si>
+    <t>Georgiadi - Orfanidis</t>
   </si>
 </sst>
 </file>
@@ -235,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1013,7 +1066,7 @@
               </a:gradFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="18415" cmpd="sng">
@@ -1144,7 +1197,7 @@
               </a:gradFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="18415" cmpd="sng">
@@ -1434,399 +1487,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>609600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="10 - Έλλειψη"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1571625" y="8610600"/>
-          <a:ext cx="704850" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d extrusionH="76200">
-          <a:extrusionClr>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:extrusionClr>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
-              <a:ln w="10541" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="88000"/>
-                    <a:satMod val="110000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="9000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="20000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="79000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="18415" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>960225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>500775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="11 - Έλλειψη"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1581150" y="9372600"/>
-          <a:ext cx="684000" cy="396000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d extrusionH="76200">
-          <a:extrusionClr>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:extrusionClr>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
-              <a:ln w="10541" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="88000"/>
-                    <a:satMod val="110000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="9000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="20000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="79000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="18415" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>960225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>491250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="12 - Έλλειψη"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1581150" y="6877050"/>
-          <a:ext cx="684000" cy="396000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d extrusionH="76200">
-          <a:extrusionClr>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:extrusionClr>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
-              <a:ln w="10541" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="88000"/>
-                    <a:satMod val="110000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="9000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="20000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="79000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="18415" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
@@ -1930,7 +1590,7 @@
               </a:gradFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="18415" cmpd="sng">
@@ -2192,7 +1852,7 @@
               </a:gradFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="18415" cmpd="sng">
@@ -2219,144 +1879,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>969750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>472200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="16 - Έλλειψη"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1590675" y="10096500"/>
-          <a:ext cx="684000" cy="396000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d extrusionH="76200">
-          <a:extrusionClr>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:extrusionClr>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
-              <a:ln w="10541" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="88000"/>
-                    <a:satMod val="110000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="9000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="20000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="79000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="52000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="40000"/>
-                      <a:satMod val="250000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="18415" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
@@ -2411,13 +1940,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>561975</xdr:rowOff>
@@ -2471,13 +2000,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
@@ -2540,70 +2069,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="21 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153400" y="333375"/>
-          <a:ext cx="457200" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>390525</xdr:rowOff>
@@ -2666,70 +2138,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="23 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153400" y="3457575"/>
-          <a:ext cx="457200" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
@@ -2780,73 +2195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>771526</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="25 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8191500" y="4591050"/>
-          <a:ext cx="447676" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>717176</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
+      <xdr:rowOff>426944</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2855,7 +2213,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8172450" y="5000625"/>
+          <a:off x="9953064" y="7665384"/>
           <a:ext cx="457200" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2906,13 +2264,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
@@ -2963,127 +2321,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="28 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8181975" y="6343650"/>
-          <a:ext cx="457200" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="29 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8181975" y="6896100"/>
-          <a:ext cx="457200" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
@@ -3126,18 +2370,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>YES</a:t>
-          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr lang="el-GR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3146,13 +2382,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
@@ -3207,120 +2443,6 @@
             </a:rPr>
             <a:t>YES</a:t>
           </a:r>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>685800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="32 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8162925" y="9248775"/>
-          <a:ext cx="457200" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="33 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8162925" y="10182225"/>
-          <a:ext cx="457200" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:endParaRPr lang="el-GR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3438,60 +2560,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="36 - Δεξιό βέλος"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2905125" y="5019675"/>
-          <a:ext cx="790575" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
@@ -3545,13 +2613,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
@@ -3600,13 +2668,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>50346</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>110218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>557894</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>544286</xdr:rowOff>
@@ -3646,7 +2714,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" b="1"/>
-            <a:t>39</a:t>
+            <a:t>76</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3655,13 +2723,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>542925</xdr:rowOff>
@@ -3701,7 +2769,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" b="1"/>
-            <a:t>24</a:t>
+            <a:t>37</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3712,16 +2780,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>785532</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>138953</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>889747</xdr:rowOff>
+          <xdr:rowOff>565897</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>941854</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>1943100</xdr:rowOff>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>433107</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>260537</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3734,7 +2802,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3742,6 +2810,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3751,13 +2830,13 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
@@ -4201,13 +3280,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
@@ -4220,63 +3299,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8162925" y="14649450"/>
-          <a:ext cx="457200" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>742950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="33 - Ορθογώνιο"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8162925" y="15497175"/>
           <a:ext cx="457200" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4421,63 +3443,9 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="36 - Δεξιό βέλος"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2914650" y="10439400"/>
-          <a:ext cx="790575" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="el-GR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1221441</xdr:rowOff>
@@ -4524,11 +3492,1905 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>700367</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>485214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6958853" y="324971"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733985</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>574861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6992471" y="1064559"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733984</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>462802</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6992470" y="2554941"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>722778</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>552449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981264" y="3272118"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>246529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733984</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>608478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6992470" y="4056529"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242048</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>718297</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>412935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6976783" y="5990104"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>801220</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>417979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8180295" y="5995148"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>722778</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>406773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981264" y="7115736"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>246528</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>722777</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>440391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8101852" y="7149354"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>745191</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>530037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7003677" y="7720853"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733984</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>552449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6992470" y="11060206"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>347382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>745191</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>709331</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7003677" y="11979088"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>358588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733984</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>720537</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8113059" y="11990294"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733984</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>485214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6992470" y="13088471"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>745190</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>474008</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124265" y="13077265"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>790014</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>563655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8169089" y="3283324"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>336177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>823631</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>698126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7082117" y="15206383"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>313765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>801219</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>675714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="18 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8180294" y="15183971"/>
+          <a:ext cx="476249" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>928850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>511549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="14 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1535207" y="13010030"/>
+          <a:ext cx="693525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>951261</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>634814</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="14 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1557618" y="8482854"/>
+          <a:ext cx="693525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>917642</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>556372</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="14 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1523999" y="9166412"/>
+          <a:ext cx="693525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>928848</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>545166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="14 - Έλλειψη"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1535205" y="9771529"/>
+          <a:ext cx="693525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="76200">
+          <a:extrusionClr>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" tIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="18415" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dir="3600000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>737347</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>493619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="26 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7014882" y="9065559"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>759759</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>460001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="26 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9995647" y="9031941"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>286870</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>744070</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>444313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="26 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7021605" y="9632576"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>759759</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>448796</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="26 - Ορθογώνιο"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9995647" y="9637059"/>
+          <a:ext cx="457200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4570,7 +5432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4605,7 +5467,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4814,29 +5676,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4855,146 +5719,214 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="126" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="126" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4"/>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4"/>
       <c r="D5" s="6"/>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5"/>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5"/>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
+      <c r="D10" s="4"/>
+      <c r="G10" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5"/>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5"/>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
+      <c r="B17" s="5"/>
+      <c r="G17" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5019,16 +5951,16 @@
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>800100</xdr:colOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>885825</xdr:rowOff>
+                <xdr:rowOff>561975</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>1943100</xdr:rowOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5058,7 +5990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
